--- a/DentalShadowingLog_InPerson.xlsx
+++ b/DentalShadowingLog_InPerson.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="66">
   <si>
     <t>Dr.</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>12-23-2021</t>
+  </si>
+  <si>
+    <t>12-27-2021</t>
+  </si>
+  <si>
+    <t>01-06-2022</t>
+  </si>
+  <si>
+    <t>01-07-2022</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1151,6 +1160,48 @@
         <v>61</v>
       </c>
     </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
